--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W15_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W15_H100_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5446153846153846</v>
+        <v>0.5439739413680782</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9619565217391305</v>
+        <v>0.9076086956521739</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5359281437125748</v>
+        <v>0.5299401197604791</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6954813359528487</v>
+        <v>0.680244399185336</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4610778443113773</v>
+        <v>0.4850299401197605</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1681362943009046</v>
+        <v>0.08056289703875801</v>
       </c>
       <c r="J2" t="n">
-        <v>2285.771662980073</v>
+        <v>930.8299480642953</v>
       </c>
       <c r="K2" t="n">
-        <v>7833766.211969814</v>
+        <v>1119996.937726991</v>
       </c>
       <c r="L2" t="n">
-        <v>2798.886602199134</v>
+        <v>1058.299077636842</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4526711120331903</v>
+        <v>0.7923109838897622</v>
       </c>
     </row>
   </sheetData>
